--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -3437,7 +3437,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W11" sqref="W11:X11"/>
+      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -2122,7 +2122,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W7" sqref="W7"/>
+      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3) SC,BC 메소드설계'!$A$3:$W$1073</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3) SC,BC 메소드설계'!$A$3:$W$1076</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="374">
   <si>
     <t>권한</t>
   </si>
@@ -452,10 +452,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bcMetdPref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1376,6 +1372,22 @@
   </si>
   <si>
     <t>calleeMetdNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcMetdPref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteHdCodeAgency01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateHdCodeAgency01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertHdCodeAgency01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1764,6 +1776,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1805,12 +1823,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2116,13 +2128,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X1091"/>
+  <dimension ref="A1:X1094"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W14" sqref="W14"/>
+      <selection pane="bottomRight" activeCell="W16" sqref="W16:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2166,31 +2178,31 @@
         <v>11</v>
       </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="47" t="s">
+      <c r="K1" s="52"/>
+      <c r="L1" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47" t="s">
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="49"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="51"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
@@ -2296,32 +2308,32 @@
       <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="54" t="s">
+      <c r="R3" s="57"/>
+      <c r="S3" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="55"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="57"/>
       <c r="W3" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="X3" s="11" t="s">
         <v>363</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:24" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2346,10 +2358,10 @@
       <c r="I4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="7" t="s">
         <v>61</v>
       </c>
@@ -2365,15 +2377,15 @@
       <c r="P4" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="R4" s="44"/>
+      <c r="R4" s="46"/>
       <c r="S4" s="7" t="s">
         <v>72</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>83</v>
+        <v>370</v>
       </c>
       <c r="U4" s="7" t="s">
         <v>73</v>
@@ -2382,10 +2394,10 @@
         <v>74</v>
       </c>
       <c r="W4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="X4" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -2458,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J6" s="29"/>
       <c r="K6" s="30"/>
@@ -2495,47 +2507,47 @@
       <c r="F7" s="34">
         <v>26</v>
       </c>
-      <c r="J7" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="K7" s="59" t="s">
+      <c r="J7" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="L7" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="M7" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="N7" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="P7" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="Q7" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="R7" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>359</v>
-      </c>
       <c r="S7" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="V7" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="V7" s="35" t="s">
-        <v>357</v>
-      </c>
       <c r="W7" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X7" s="18" t="s">
         <v>51</v>
@@ -2554,7 +2566,7 @@
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
       <c r="W8" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>54</v>
@@ -2573,7 +2585,7 @@
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
       <c r="W9" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X9" s="18" t="s">
         <v>53</v>
@@ -2592,7 +2604,7 @@
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
       <c r="W10" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>55</v>
@@ -2611,7 +2623,7 @@
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
       <c r="W11" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>55</v>
@@ -2653,7 +2665,7 @@
         <v>36</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="X12" s="18" t="s">
         <v>52</v>
@@ -2695,69 +2707,29 @@
         <v>36</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>53</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="34">
-        <v>27</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="K14" s="59" t="s">
-        <v>360</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="V14" s="35" t="s">
-        <v>35</v>
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="2"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="X14" s="18" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.3">
@@ -2765,102 +2737,45 @@
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
-      <c r="E15" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="V15" s="35" t="s">
-        <v>35</v>
+      <c r="E15" s="33"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="2"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="34">
-        <v>28</v>
-      </c>
-      <c r="J16" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="K16" s="59" t="s">
-        <v>361</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="P16" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="S16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U16" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>49</v>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="2"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C17" s="32" t="s">
         <v>5</v>
@@ -2872,61 +2787,206 @@
         <v>80</v>
       </c>
       <c r="F17" s="34">
-        <v>29</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>349</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>362</v>
+        <v>27</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K17" s="45" t="s">
+        <v>359</v>
       </c>
       <c r="L17" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M17" s="36" t="s">
         <v>20</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>45</v>
+        <v>31</v>
+      </c>
+      <c r="O17" s="35" t="s">
+        <v>30</v>
       </c>
       <c r="P17" s="35" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="S17" s="36" t="s">
         <v>20</v>
       </c>
       <c r="T17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" s="35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="34">
+        <v>28</v>
+      </c>
+      <c r="J19" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K19" s="45" t="s">
+        <v>360</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U19" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="34">
+        <v>29</v>
+      </c>
+      <c r="J20" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>361</v>
+      </c>
+      <c r="L20" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="O20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P20" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="R20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="V17" s="35" t="s">
+      <c r="S20" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U20" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="F20" s="18"/>
-    </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>350</v>
+      </c>
       <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
@@ -6085,14 +6145,14 @@
     <row r="1073" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F1073" s="18"/>
     </row>
-    <row r="1084" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1084" s="31"/>
-    </row>
-    <row r="1085" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1085" s="31"/>
-    </row>
-    <row r="1086" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1086" s="31"/>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1074" s="18"/>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1075" s="18"/>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F1076" s="18"/>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1087" s="31"/>
@@ -6109,8 +6169,17 @@
     <row r="1091" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1091" s="31"/>
     </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1092" s="31"/>
+    </row>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1093" s="31"/>
+    </row>
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1094" s="31"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:W1073">
+  <autoFilter ref="A3:W1076">
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
@@ -6157,1243 +6226,1243 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="41" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="43" t="s">
         <v>96</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>97</v>
       </c>
       <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>98</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>99</v>
       </c>
       <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>100</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>101</v>
       </c>
       <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="43" t="s">
         <v>103</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>104</v>
       </c>
       <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>105</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>106</v>
       </c>
       <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>107</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>108</v>
       </c>
       <c r="C15" s="43"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>109</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>110</v>
       </c>
       <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>111</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>112</v>
       </c>
       <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>113</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>114</v>
       </c>
       <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>115</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>116</v>
       </c>
       <c r="C19" s="43"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>117</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>118</v>
       </c>
       <c r="C20" s="43"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>119</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>120</v>
       </c>
       <c r="C21" s="43"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>121</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>122</v>
       </c>
       <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>124</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>125</v>
       </c>
       <c r="C24" s="43"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>127</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>128</v>
       </c>
       <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>129</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>130</v>
       </c>
       <c r="C27" s="43"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>131</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>132</v>
       </c>
       <c r="C28" s="43"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>133</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>134</v>
       </c>
       <c r="C29" s="43"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" s="43" t="s">
         <v>135</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>136</v>
       </c>
       <c r="C30" s="43"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>137</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>138</v>
       </c>
       <c r="C31" s="43"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>139</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>140</v>
       </c>
       <c r="C32" s="43"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="43" t="s">
         <v>141</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>142</v>
       </c>
       <c r="C33" s="43"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>143</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>144</v>
       </c>
       <c r="C34" s="43"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>146</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>147</v>
       </c>
       <c r="C36" s="43"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" s="43" t="s">
         <v>148</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>149</v>
       </c>
       <c r="C37" s="43"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>150</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>151</v>
       </c>
       <c r="C38" s="43"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>152</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>153</v>
       </c>
       <c r="C39" s="43"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>154</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>155</v>
       </c>
       <c r="C40" s="43"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>156</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>157</v>
       </c>
       <c r="C41" s="43"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="43" t="s">
         <v>158</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>159</v>
       </c>
       <c r="C42" s="43"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="C43" s="43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="43" t="s">
         <v>162</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>163</v>
       </c>
       <c r="C44" s="43"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="B45" s="43" t="s">
         <v>164</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>165</v>
       </c>
       <c r="C45" s="43"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>166</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>167</v>
       </c>
       <c r="C46" s="43"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" s="43" t="s">
         <v>169</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>170</v>
       </c>
       <c r="C48" s="43"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B50" s="43" t="s">
         <v>172</v>
-      </c>
-      <c r="B50" s="43" t="s">
-        <v>173</v>
       </c>
       <c r="C50" s="43"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B51" s="43" t="s">
         <v>174</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>175</v>
       </c>
       <c r="C51" s="43"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="43" t="s">
         <v>176</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>177</v>
       </c>
       <c r="C52" s="43"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="43" t="s">
         <v>178</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>179</v>
       </c>
       <c r="C53" s="43"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B54" s="43" t="s">
         <v>180</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>181</v>
       </c>
       <c r="C54" s="43"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="43" t="s">
         <v>182</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>183</v>
       </c>
       <c r="C55" s="43"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="43" t="s">
         <v>184</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>185</v>
       </c>
       <c r="C56" s="43"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="43" t="s">
         <v>186</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>187</v>
       </c>
       <c r="C57" s="43"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" s="43" t="s">
         <v>188</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>189</v>
       </c>
       <c r="C58" s="43"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" s="43" t="s">
         <v>190</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>191</v>
       </c>
       <c r="C59" s="43"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="43" t="s">
         <v>192</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>193</v>
       </c>
       <c r="C60" s="43"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" s="43" t="s">
         <v>195</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>196</v>
       </c>
       <c r="C62" s="43"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" s="43" t="s">
         <v>197</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>198</v>
       </c>
       <c r="C63" s="43"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="43" t="s">
         <v>199</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>200</v>
       </c>
       <c r="C64" s="43"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65" s="43" t="s">
         <v>201</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>202</v>
       </c>
       <c r="C65" s="43"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B66" s="43" t="s">
         <v>203</v>
-      </c>
-      <c r="B66" s="43" t="s">
-        <v>204</v>
       </c>
       <c r="C66" s="43"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="B67" s="43" t="s">
         <v>205</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>206</v>
       </c>
       <c r="C67" s="43"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="43" t="s">
         <v>207</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>208</v>
       </c>
       <c r="C68" s="43"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="B69" s="43" t="s">
         <v>209</v>
-      </c>
-      <c r="B69" s="43" t="s">
-        <v>210</v>
       </c>
       <c r="C69" s="43"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" s="43" t="s">
         <v>211</v>
-      </c>
-      <c r="B70" s="43" t="s">
-        <v>212</v>
       </c>
       <c r="C70" s="43"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="43" t="s">
         <v>213</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>214</v>
       </c>
       <c r="C71" s="43"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" s="43" t="s">
         <v>215</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>216</v>
       </c>
       <c r="C72" s="43"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" s="43" t="s">
         <v>217</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>218</v>
       </c>
       <c r="C73" s="43"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="43" t="s">
         <v>219</v>
-      </c>
-      <c r="B74" s="43" t="s">
-        <v>220</v>
       </c>
       <c r="C74" s="43"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="43" t="s">
         <v>221</v>
-      </c>
-      <c r="B75" s="43" t="s">
-        <v>222</v>
       </c>
       <c r="C75" s="43"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="B76" s="43" t="s">
         <v>223</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>224</v>
       </c>
       <c r="C76" s="43"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="43" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" s="43" t="s">
         <v>225</v>
-      </c>
-      <c r="B77" s="43" t="s">
-        <v>226</v>
       </c>
       <c r="C77" s="43"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="43" t="s">
         <v>227</v>
-      </c>
-      <c r="B78" s="43" t="s">
-        <v>228</v>
       </c>
       <c r="C78" s="43"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" s="43" t="s">
         <v>229</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>230</v>
       </c>
       <c r="C79" s="43"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" s="43" t="s">
         <v>231</v>
-      </c>
-      <c r="B80" s="43" t="s">
-        <v>232</v>
       </c>
       <c r="C80" s="43"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="43" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" s="43" t="s">
         <v>233</v>
-      </c>
-      <c r="B81" s="43" t="s">
-        <v>234</v>
       </c>
       <c r="C81" s="43"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="43" t="s">
         <v>235</v>
-      </c>
-      <c r="B82" s="43" t="s">
-        <v>236</v>
       </c>
       <c r="C82" s="43"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" s="43" t="s">
         <v>237</v>
-      </c>
-      <c r="B83" s="43" t="s">
-        <v>238</v>
       </c>
       <c r="C83" s="43"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" s="43" t="s">
         <v>239</v>
-      </c>
-      <c r="B84" s="43" t="s">
-        <v>240</v>
       </c>
       <c r="C84" s="43"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" s="43" t="s">
         <v>241</v>
-      </c>
-      <c r="B85" s="43" t="s">
-        <v>242</v>
       </c>
       <c r="C85" s="43"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="43" t="s">
+        <v>242</v>
+      </c>
+      <c r="B86" s="43" t="s">
         <v>243</v>
-      </c>
-      <c r="B86" s="43" t="s">
-        <v>244</v>
       </c>
       <c r="C86" s="43"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" s="43" t="s">
         <v>245</v>
-      </c>
-      <c r="B87" s="43" t="s">
-        <v>246</v>
       </c>
       <c r="C87" s="43"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B88" s="43" t="s">
         <v>247</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>248</v>
       </c>
       <c r="C88" s="43"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" s="43" t="s">
         <v>249</v>
-      </c>
-      <c r="B89" s="43" t="s">
-        <v>250</v>
       </c>
       <c r="C89" s="43"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="B90" s="43" t="s">
         <v>251</v>
-      </c>
-      <c r="B90" s="43" t="s">
-        <v>252</v>
       </c>
       <c r="C90" s="43"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" s="43" t="s">
         <v>253</v>
-      </c>
-      <c r="B91" s="43" t="s">
-        <v>254</v>
       </c>
       <c r="C91" s="43"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="B92" s="43" t="s">
         <v>255</v>
-      </c>
-      <c r="B92" s="43" t="s">
-        <v>256</v>
       </c>
       <c r="C92" s="43"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" s="43" t="s">
         <v>257</v>
-      </c>
-      <c r="B93" s="43" t="s">
-        <v>258</v>
       </c>
       <c r="C93" s="43"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="43" t="s">
         <v>259</v>
-      </c>
-      <c r="B94" s="43" t="s">
-        <v>260</v>
       </c>
       <c r="C94" s="43"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B95" s="43" t="s">
         <v>261</v>
-      </c>
-      <c r="B95" s="43" t="s">
-        <v>262</v>
       </c>
       <c r="C95" s="43"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B96" s="43" t="s">
         <v>263</v>
-      </c>
-      <c r="B96" s="43" t="s">
-        <v>264</v>
       </c>
       <c r="C96" s="43"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="43" t="s">
+        <v>264</v>
+      </c>
+      <c r="B97" s="43" t="s">
         <v>265</v>
-      </c>
-      <c r="B97" s="43" t="s">
-        <v>266</v>
       </c>
       <c r="C97" s="43"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="B98" s="43" t="s">
         <v>267</v>
-      </c>
-      <c r="B98" s="43" t="s">
-        <v>268</v>
       </c>
       <c r="C98" s="43"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B99" s="43" t="s">
         <v>269</v>
-      </c>
-      <c r="B99" s="43" t="s">
-        <v>270</v>
       </c>
       <c r="C99" s="43"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100" s="43" t="s">
         <v>271</v>
-      </c>
-      <c r="B100" s="43" t="s">
-        <v>272</v>
       </c>
       <c r="C100" s="43"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B101" s="43" t="s">
         <v>273</v>
-      </c>
-      <c r="B101" s="43" t="s">
-        <v>274</v>
       </c>
       <c r="C101" s="43"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="B102" s="43" t="s">
         <v>275</v>
-      </c>
-      <c r="B102" s="43" t="s">
-        <v>276</v>
       </c>
       <c r="C102" s="43"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" s="43" t="s">
         <v>277</v>
-      </c>
-      <c r="B103" s="43" t="s">
-        <v>278</v>
       </c>
       <c r="C103" s="43"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="43" t="s">
         <v>279</v>
-      </c>
-      <c r="B104" s="43" t="s">
-        <v>280</v>
       </c>
       <c r="C104" s="43"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B105" s="43" t="s">
         <v>281</v>
-      </c>
-      <c r="B105" s="43" t="s">
-        <v>282</v>
       </c>
       <c r="C105" s="43"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B106" s="43" t="s">
         <v>283</v>
-      </c>
-      <c r="B106" s="43" t="s">
-        <v>284</v>
       </c>
       <c r="C106" s="43"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" s="43" t="s">
         <v>285</v>
-      </c>
-      <c r="B107" s="43" t="s">
-        <v>286</v>
       </c>
       <c r="C107" s="43"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B108" s="43" t="s">
         <v>287</v>
-      </c>
-      <c r="B108" s="43" t="s">
-        <v>288</v>
       </c>
       <c r="C108" s="43"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="B109" s="43" t="s">
         <v>289</v>
-      </c>
-      <c r="B109" s="43" t="s">
-        <v>290</v>
       </c>
       <c r="C109" s="43"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="43" t="s">
         <v>291</v>
-      </c>
-      <c r="B110" s="43" t="s">
-        <v>292</v>
       </c>
       <c r="C110" s="43"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B111" s="43" t="s">
         <v>293</v>
-      </c>
-      <c r="B111" s="43" t="s">
-        <v>294</v>
       </c>
       <c r="C111" s="43"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" s="43" t="s">
         <v>295</v>
-      </c>
-      <c r="B112" s="43" t="s">
-        <v>296</v>
       </c>
       <c r="C112" s="43"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" s="43" t="s">
         <v>297</v>
-      </c>
-      <c r="B113" s="43" t="s">
-        <v>298</v>
       </c>
       <c r="C113" s="43"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B114" s="43" t="s">
         <v>299</v>
-      </c>
-      <c r="B114" s="43" t="s">
-        <v>300</v>
       </c>
       <c r="C114" s="43"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="B115" s="43" t="s">
         <v>301</v>
-      </c>
-      <c r="B115" s="43" t="s">
-        <v>302</v>
       </c>
       <c r="C115" s="43"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="B116" s="43" t="s">
         <v>303</v>
-      </c>
-      <c r="B116" s="43" t="s">
-        <v>304</v>
       </c>
       <c r="C116" s="43"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B117" s="43" t="s">
         <v>305</v>
-      </c>
-      <c r="B117" s="43" t="s">
-        <v>306</v>
       </c>
       <c r="C117" s="43"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="B118" s="43" t="s">
         <v>307</v>
-      </c>
-      <c r="B118" s="43" t="s">
-        <v>308</v>
       </c>
       <c r="C118" s="43"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B119" s="43" t="s">
         <v>309</v>
-      </c>
-      <c r="B119" s="43" t="s">
-        <v>310</v>
       </c>
       <c r="C119" s="43"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B120" s="43" t="s">
         <v>311</v>
-      </c>
-      <c r="B120" s="43" t="s">
-        <v>312</v>
       </c>
       <c r="C120" s="43"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B121" s="43" t="s">
         <v>313</v>
-      </c>
-      <c r="B121" s="43" t="s">
-        <v>314</v>
       </c>
       <c r="C121" s="43"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B122" s="43" t="s">
         <v>315</v>
-      </c>
-      <c r="B122" s="43" t="s">
-        <v>316</v>
       </c>
       <c r="C122" s="43"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="43" t="s">
         <v>317</v>
-      </c>
-      <c r="B123" s="43" t="s">
-        <v>318</v>
       </c>
       <c r="C123" s="43"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="B124" s="43" t="s">
         <v>319</v>
-      </c>
-      <c r="B124" s="43" t="s">
-        <v>320</v>
       </c>
       <c r="C124" s="43"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B125" s="43" t="s">
         <v>321</v>
-      </c>
-      <c r="B125" s="43" t="s">
-        <v>322</v>
       </c>
       <c r="C125" s="43"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B126" s="43" t="s">
         <v>323</v>
-      </c>
-      <c r="B126" s="43" t="s">
-        <v>324</v>
       </c>
       <c r="C126" s="43"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="B127" s="43" t="s">
         <v>325</v>
-      </c>
-      <c r="B127" s="43" t="s">
-        <v>326</v>
       </c>
       <c r="C127" s="43"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B128" s="43" t="s">
         <v>327</v>
-      </c>
-      <c r="B128" s="43" t="s">
-        <v>328</v>
       </c>
       <c r="C128" s="43"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B129" s="43" t="s">
         <v>329</v>
-      </c>
-      <c r="B129" s="43" t="s">
-        <v>330</v>
       </c>
       <c r="C129" s="43"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="43" t="s">
+        <v>330</v>
+      </c>
+      <c r="B130" s="43" t="s">
         <v>331</v>
-      </c>
-      <c r="B130" s="43" t="s">
-        <v>332</v>
       </c>
       <c r="C130" s="43"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="B131" s="43" t="s">
         <v>333</v>
-      </c>
-      <c r="B131" s="43" t="s">
-        <v>334</v>
       </c>
       <c r="C131" s="43"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="B132" s="43" t="s">
         <v>335</v>
-      </c>
-      <c r="B132" s="43" t="s">
-        <v>336</v>
       </c>
       <c r="C132" s="43"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B134" s="43" t="s">
         <v>338</v>
-      </c>
-      <c r="B134" s="43" t="s">
-        <v>339</v>
       </c>
       <c r="C134" s="43"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="B139" s="57"/>
+      <c r="A139" s="59" t="s">
+        <v>343</v>
+      </c>
+      <c r="B139" s="59"/>
       <c r="C139" s="42"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B141" s="43"/>
       <c r="C141" s="43"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B142" s="43"/>
       <c r="C142" s="43"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B143" s="43"/>
       <c r="C143" s="43"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -2134,7 +2134,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W16" sqref="W16:X16"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="353">
   <si>
     <t>권한</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>등록</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    현장별계약서지정</t>
   </si>
   <si>
     <t>메뉴얼페이지</t>
@@ -103,33 +100,6 @@
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HDeCodeDeptPaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeDeptPaper</t>
-  </si>
-  <si>
-    <t>search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BHDU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeDeptPaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CodeDeptPaper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현장계약서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1277,10 +1247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Callee Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1338,6 +1304,10 @@
   </si>
   <si>
     <t>Callee Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Excel Rows</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2084,10 +2054,10 @@
   <dimension ref="A1:AB1092"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="W18:X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2128,33 +2098,33 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="38" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="48" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I1" s="49"/>
       <c r="J1" s="48" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K1" s="53"/>
       <c r="L1" s="50" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="M1" s="51"/>
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
       <c r="P1" s="52"/>
       <c r="Q1" s="48" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="R1" s="49"/>
       <c r="S1" s="50" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
@@ -2244,10 +2214,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -2256,124 +2226,124 @@
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K3" s="56"/>
       <c r="L3" s="54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M3" s="55"/>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
       <c r="P3" s="56"/>
       <c r="Q3" s="57" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="R3" s="58"/>
       <c r="S3" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T3" s="59"/>
       <c r="U3" s="59"/>
       <c r="V3" s="58"/>
       <c r="W3" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K4" s="47"/>
       <c r="L4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="O4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="47" t="s">
         <v>55</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q4" s="47" t="s">
-        <v>63</v>
       </c>
       <c r="R4" s="47"/>
       <c r="S4" s="7" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="V4" s="7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="W4" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="X4" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -2386,33 +2356,33 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
       <c r="L5" s="20" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="21" t="s">
+      <c r="P5" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="21" t="s">
+      <c r="V5" s="21" t="s">
         <v>17</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>18</v>
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="22"/>
@@ -2434,17 +2404,17 @@
         <v>4</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="28">
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="J6" s="29"/>
       <c r="K6" s="30"/>
@@ -2464,10 +2434,10 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="32" t="s">
         <v>5</v>
@@ -2476,55 +2446,55 @@
         <v>6</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F7" s="34">
         <v>26</v>
       </c>
       <c r="J7" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="K7" s="45" t="s">
+        <v>329</v>
+      </c>
+      <c r="L7" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q7" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="K7" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="M7" s="36" t="s">
+      <c r="R7" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="W7" s="18" t="s">
         <v>339</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="O7" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="P7" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>344</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="U7" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="V7" s="35" t="s">
-        <v>342</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>348</v>
-      </c>
       <c r="X7" s="18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
@@ -2540,10 +2510,10 @@
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
       <c r="W8" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -2559,10 +2529,10 @@
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
       <c r="W9" s="18" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -2578,10 +2548,10 @@
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
       <c r="W10" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -2597,10 +2567,10 @@
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
       <c r="W11" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
@@ -2609,40 +2579,40 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="33" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="S12" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="35" t="s">
+      <c r="U12" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="V12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="X12" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="S12" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="W12" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="X12" s="18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
@@ -2651,40 +2621,40 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="35" t="s">
-        <v>22</v>
-      </c>
       <c r="P13" s="35" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="35" t="s">
-        <v>22</v>
-      </c>
       <c r="V13" s="35" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
@@ -2700,10 +2670,10 @@
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="18" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
@@ -2719,10 +2689,10 @@
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="18" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -2738,10 +2708,10 @@
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
@@ -2757,10 +2727,10 @@
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="18" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -2768,69 +2738,64 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>7</v>
+        <v>352</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>6</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
       <c r="E18" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="34">
-        <v>27</v>
-      </c>
-      <c r="J18" s="44" t="s">
-        <v>335</v>
-      </c>
-      <c r="K18" s="45" t="s">
-        <v>345</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="P18" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U18" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="V18" s="35" t="s">
-        <v>30</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="K18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="M18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="N18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="T18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="V18" s="31" t="s">
+        <v>352</v>
+      </c>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
       <c r="Z18" s="12"/>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F19" s="18"/>
       <c r="Z19" s="12"/>
@@ -33452,1243 +33417,1243 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C15" s="43"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C19" s="43"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C20" s="43"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C21" s="43"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C24" s="43"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C27" s="43"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C28" s="43"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C29" s="43"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C30" s="43"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C31" s="43"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C32" s="43"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C33" s="43"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C34" s="43"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C36" s="43"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C37" s="43"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C38" s="43"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C39" s="43"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C40" s="43"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C41" s="43"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C42" s="43"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C43" s="43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C44" s="43"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C45" s="43"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C46" s="43"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C48" s="43"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C50" s="43"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C51" s="43"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="43" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C52" s="43"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C53" s="43"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C54" s="43"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C55" s="43"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C56" s="43"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C57" s="43"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C58" s="43"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C59" s="43"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C60" s="43"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C62" s="43"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C63" s="43"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C64" s="43"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C65" s="43"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="43" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C66" s="43"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C67" s="43"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="43" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C68" s="43"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C69" s="43"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="43" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C70" s="43"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="43" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C71" s="43"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="43" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C72" s="43"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C73" s="43"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="43" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C74" s="43"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C75" s="43"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="43" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C76" s="43"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="43" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C77" s="43"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="43" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C78" s="43"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="43" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C79" s="43"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C80" s="43"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="43" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C81" s="43"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="43" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C82" s="43"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="43" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C83" s="43"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="43" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C84" s="43"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="43" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C85" s="43"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="43" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C86" s="43"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="43" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C87" s="43"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="43" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C88" s="43"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="43" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C89" s="43"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="43" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C90" s="43"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="43" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C91" s="43"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="43" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C92" s="43"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="43" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C93" s="43"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="43" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C94" s="43"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="43" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C95" s="43"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="43" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C96" s="43"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="43" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C97" s="43"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="43" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C98" s="43"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="43" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C99" s="43"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="43" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C100" s="43"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="43" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C101" s="43"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="43" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C102" s="43"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="43" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C103" s="43"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="43" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C104" s="43"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="43" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C105" s="43"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="43" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C106" s="43"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="43" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C107" s="43"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="43" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C108" s="43"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="43" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C109" s="43"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="43" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C110" s="43"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="43" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C111" s="43"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="43" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B112" s="43" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C112" s="43"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="43" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C113" s="43"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="43" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B114" s="43" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C114" s="43"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="43" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C115" s="43"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="43" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B116" s="43" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C116" s="43"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="43" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C117" s="43"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="43" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B118" s="43" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C118" s="43"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="43" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B119" s="43" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C119" s="43"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="43" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C120" s="43"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="43" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C121" s="43"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="43" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C122" s="43"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="43" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C123" s="43"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="43" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C124" s="43"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="43" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C125" s="43"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="43" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C126" s="43"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="43" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C127" s="43"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="43" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C128" s="43"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="43" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C129" s="43"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="43" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C130" s="43"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="43" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C131" s="43"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="43" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C132" s="43"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="43" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="43" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C134" s="43"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="43" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="43" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="43" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="43" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="60" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B139" s="60"/>
       <c r="C139" s="42"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="43" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="43" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B141" s="43"/>
       <c r="C141" s="43"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="43" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B142" s="43"/>
       <c r="C142" s="43"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="43" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B143" s="43"/>
       <c r="C143" s="43"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3) SC,BC 메소드설계'!$A$3:$W$1074</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3) SC,BC 메소드설계'!$A$3:$W$1081</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="357">
   <si>
     <t>권한</t>
   </si>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1247,6 +1251,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Callee Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1308,6 +1316,14 @@
   </si>
   <si>
     <t>Last Excel Rows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeTest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remove</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2051,13 +2067,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1092"/>
+  <dimension ref="A1:AB1099"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="X18" sqref="W18:X18"/>
+      <selection pane="bottomRight" activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2098,33 +2114,33 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="49"/>
       <c r="J1" s="48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="53"/>
       <c r="L1" s="50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="51"/>
       <c r="N1" s="51"/>
       <c r="O1" s="51"/>
       <c r="P1" s="52"/>
       <c r="Q1" s="48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R1" s="49"/>
       <c r="S1" s="50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T1" s="51"/>
       <c r="U1" s="51"/>
@@ -2214,10 +2230,10 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>0</v>
@@ -2226,13 +2242,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>11</v>
@@ -2241,7 +2257,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="56"/>
       <c r="L3" s="54" t="s">
@@ -2252,7 +2268,7 @@
       <c r="O3" s="55"/>
       <c r="P3" s="56"/>
       <c r="Q3" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R3" s="58"/>
       <c r="S3" s="57" t="s">
@@ -2262,88 +2278,88 @@
       <c r="U3" s="59"/>
       <c r="V3" s="58"/>
       <c r="W3" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="X3" s="11" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4" s="47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K4" s="47"/>
       <c r="L4" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R4" s="47"/>
       <c r="S4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T4" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="U4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="X4" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Z4" s="46" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AA4" s="46" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AB4" s="46" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -2356,7 +2372,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="19"/>
       <c r="L5" s="20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>15</v>
@@ -2404,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="28">
@@ -2414,7 +2430,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="29" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J6" s="29"/>
       <c r="K6" s="30"/>
@@ -2446,55 +2462,55 @@
         <v>6</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="34">
         <v>26</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K7" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="P7" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="S7" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="O7" s="35" t="s">
+      <c r="T7" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="U7" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="Q7" s="18" t="s">
+      <c r="V7" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="S7" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="U7" s="35" t="s">
-        <v>333</v>
-      </c>
-      <c r="V7" s="35" t="s">
-        <v>334</v>
-      </c>
       <c r="W7" s="18" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="X7" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
@@ -2510,10 +2526,10 @@
       <c r="U8" s="35"/>
       <c r="V8" s="35"/>
       <c r="W8" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
@@ -2529,10 +2545,10 @@
       <c r="U9" s="35"/>
       <c r="V9" s="35"/>
       <c r="W9" s="18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="X9" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
@@ -2548,10 +2564,10 @@
       <c r="U10" s="35"/>
       <c r="V10" s="35"/>
       <c r="W10" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -2567,10 +2583,10 @@
       <c r="U11" s="35"/>
       <c r="V11" s="35"/>
       <c r="W11" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
@@ -2579,10 +2595,10 @@
       <c r="C12" s="32"/>
       <c r="D12" s="32"/>
       <c r="E12" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L12" s="35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>14</v>
@@ -2594,7 +2610,7 @@
         <v>21</v>
       </c>
       <c r="P12" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S12" s="36" t="s">
         <v>14</v>
@@ -2606,13 +2622,13 @@
         <v>21</v>
       </c>
       <c r="V12" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W12" s="18" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="X12" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
@@ -2621,10 +2637,10 @@
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L13" s="35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M13" s="36" t="s">
         <v>14</v>
@@ -2636,7 +2652,7 @@
         <v>21</v>
       </c>
       <c r="P13" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S13" s="36" t="s">
         <v>14</v>
@@ -2648,13 +2664,13 @@
         <v>21</v>
       </c>
       <c r="V13" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
@@ -2670,10 +2686,10 @@
       <c r="U14" s="35"/>
       <c r="V14" s="35"/>
       <c r="W14" s="18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="X14" s="18" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
@@ -2689,10 +2705,10 @@
       <c r="U15" s="35"/>
       <c r="V15" s="35"/>
       <c r="W15" s="18" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="X15" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
@@ -2708,10 +2724,10 @@
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="1" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
@@ -2727,10 +2743,10 @@
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="18" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="X17" s="18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
@@ -2738,107 +2754,290 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>6</v>
+      </c>
       <c r="E18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="N18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="O18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="P18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="R18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="S18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="T18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="U18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="V18" s="31" t="s">
-        <v>352</v>
-      </c>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="F18" s="34">
+        <v>26</v>
+      </c>
+      <c r="J18" s="44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K18" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="L18" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q18" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="S18" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="V18" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="2"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F20" s="18"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="2"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F21" s="18"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="2"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F22" s="18"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="2"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F23" s="18"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U23" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="V23" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="X23" s="18" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F24" s="18"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="12"/>
-      <c r="AB24" s="12"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="L24" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="U24" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="V24" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="X24" s="18" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="F25" s="18"/>
+      <c r="A25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="O25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="T25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="U25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="V25" s="31" t="s">
+        <v>354</v>
+      </c>
+      <c r="W25" s="31"/>
+      <c r="X25" s="31"/>
       <c r="Z25" s="12"/>
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>323</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12"/>
@@ -2863,204 +3062,43 @@
       <c r="AB29" s="12"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
       <c r="F30" s="18"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
-      <c r="T30" s="12"/>
-      <c r="U30" s="12"/>
-      <c r="V30" s="12"/>
-      <c r="W30" s="12"/>
-      <c r="X30" s="12"/>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
       <c r="F32" s="18"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
       <c r="Z32" s="12"/>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
       <c r="Z34" s="12"/>
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
       <c r="Z36" s="12"/>
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
@@ -33023,6 +33061,11 @@
       <c r="AB1069" s="12"/>
     </row>
     <row r="1070" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1070" s="12"/>
+      <c r="B1070" s="12"/>
+      <c r="C1070" s="12"/>
+      <c r="D1070" s="12"/>
+      <c r="E1070" s="12"/>
       <c r="F1070" s="18"/>
       <c r="G1070" s="12"/>
       <c r="H1070" s="12"/>
@@ -33047,6 +33090,11 @@
       <c r="AB1070" s="12"/>
     </row>
     <row r="1071" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1071" s="12"/>
+      <c r="B1071" s="12"/>
+      <c r="C1071" s="12"/>
+      <c r="D1071" s="12"/>
+      <c r="E1071" s="12"/>
       <c r="F1071" s="18"/>
       <c r="G1071" s="12"/>
       <c r="H1071" s="12"/>
@@ -33071,6 +33119,11 @@
       <c r="AB1071" s="12"/>
     </row>
     <row r="1072" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1072" s="12"/>
+      <c r="B1072" s="12"/>
+      <c r="C1072" s="12"/>
+      <c r="D1072" s="12"/>
+      <c r="E1072" s="12"/>
       <c r="F1072" s="18"/>
       <c r="G1072" s="12"/>
       <c r="H1072" s="12"/>
@@ -33095,6 +33148,11 @@
       <c r="AB1072" s="12"/>
     </row>
     <row r="1073" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1073" s="12"/>
+      <c r="B1073" s="12"/>
+      <c r="C1073" s="12"/>
+      <c r="D1073" s="12"/>
+      <c r="E1073" s="12"/>
       <c r="F1073" s="18"/>
       <c r="G1073" s="12"/>
       <c r="H1073" s="12"/>
@@ -33119,6 +33177,11 @@
       <c r="AB1073" s="12"/>
     </row>
     <row r="1074" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1074" s="12"/>
+      <c r="B1074" s="12"/>
+      <c r="C1074" s="12"/>
+      <c r="D1074" s="12"/>
+      <c r="E1074" s="12"/>
       <c r="F1074" s="18"/>
       <c r="G1074" s="12"/>
       <c r="H1074" s="12"/>
@@ -33142,211 +33205,186 @@
       <c r="AA1074" s="12"/>
       <c r="AB1074" s="12"/>
     </row>
-    <row r="1085" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1085" s="31"/>
-      <c r="G1085" s="12"/>
-      <c r="H1085" s="12"/>
-      <c r="I1085" s="12"/>
-      <c r="J1085" s="12"/>
-      <c r="K1085" s="12"/>
-      <c r="L1085" s="12"/>
-      <c r="M1085" s="12"/>
-      <c r="N1085" s="12"/>
-      <c r="O1085" s="12"/>
-      <c r="P1085" s="12"/>
-      <c r="Q1085" s="12"/>
-      <c r="R1085" s="12"/>
-      <c r="S1085" s="12"/>
-      <c r="T1085" s="12"/>
-      <c r="U1085" s="12"/>
-      <c r="V1085" s="12"/>
-      <c r="W1085" s="12"/>
-      <c r="X1085" s="12"/>
-      <c r="Z1085" s="12"/>
-      <c r="AA1085" s="12"/>
-      <c r="AB1085" s="12"/>
-    </row>
-    <row r="1086" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1086" s="31"/>
-      <c r="B1086" s="12"/>
-      <c r="C1086" s="12"/>
-      <c r="D1086" s="12"/>
-      <c r="E1086" s="12"/>
-      <c r="F1086" s="12"/>
-      <c r="G1086" s="12"/>
-      <c r="H1086" s="12"/>
-      <c r="I1086" s="12"/>
-      <c r="J1086" s="12"/>
-      <c r="K1086" s="12"/>
-      <c r="L1086" s="12"/>
-      <c r="M1086" s="12"/>
-      <c r="N1086" s="12"/>
-      <c r="O1086" s="12"/>
-      <c r="P1086" s="12"/>
-      <c r="Q1086" s="12"/>
-      <c r="R1086" s="12"/>
-      <c r="S1086" s="12"/>
-      <c r="T1086" s="12"/>
-      <c r="U1086" s="12"/>
-      <c r="V1086" s="12"/>
-      <c r="W1086" s="12"/>
-      <c r="X1086" s="12"/>
-      <c r="Z1086" s="12"/>
-      <c r="AA1086" s="12"/>
-      <c r="AB1086" s="12"/>
-    </row>
-    <row r="1087" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1087" s="31"/>
-      <c r="B1087" s="12"/>
-      <c r="C1087" s="12"/>
-      <c r="D1087" s="12"/>
-      <c r="E1087" s="12"/>
-      <c r="F1087" s="12"/>
-      <c r="G1087" s="12"/>
-      <c r="H1087" s="12"/>
-      <c r="I1087" s="12"/>
-      <c r="J1087" s="12"/>
-      <c r="K1087" s="12"/>
-      <c r="L1087" s="12"/>
-      <c r="M1087" s="12"/>
-      <c r="N1087" s="12"/>
-      <c r="O1087" s="12"/>
-      <c r="P1087" s="12"/>
-      <c r="Q1087" s="12"/>
-      <c r="R1087" s="12"/>
-      <c r="S1087" s="12"/>
-      <c r="T1087" s="12"/>
-      <c r="U1087" s="12"/>
-      <c r="V1087" s="12"/>
-      <c r="W1087" s="12"/>
-      <c r="X1087" s="12"/>
-      <c r="Z1087" s="12"/>
-      <c r="AA1087" s="12"/>
-      <c r="AB1087" s="12"/>
-    </row>
-    <row r="1088" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1088" s="31"/>
-      <c r="B1088" s="12"/>
-      <c r="C1088" s="12"/>
-      <c r="D1088" s="12"/>
-      <c r="E1088" s="12"/>
-      <c r="F1088" s="12"/>
-      <c r="G1088" s="12"/>
-      <c r="H1088" s="12"/>
-      <c r="I1088" s="12"/>
-      <c r="J1088" s="12"/>
-      <c r="K1088" s="12"/>
-      <c r="L1088" s="12"/>
-      <c r="M1088" s="12"/>
-      <c r="N1088" s="12"/>
-      <c r="O1088" s="12"/>
-      <c r="P1088" s="12"/>
-      <c r="Q1088" s="12"/>
-      <c r="R1088" s="12"/>
-      <c r="S1088" s="12"/>
-      <c r="T1088" s="12"/>
-      <c r="U1088" s="12"/>
-      <c r="V1088" s="12"/>
-      <c r="W1088" s="12"/>
-      <c r="X1088" s="12"/>
-      <c r="Z1088" s="12"/>
-      <c r="AA1088" s="12"/>
-      <c r="AB1088" s="12"/>
-    </row>
-    <row r="1089" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1089" s="31"/>
-      <c r="B1089" s="12"/>
-      <c r="C1089" s="12"/>
-      <c r="D1089" s="12"/>
-      <c r="E1089" s="12"/>
-      <c r="F1089" s="12"/>
-      <c r="G1089" s="12"/>
-      <c r="H1089" s="12"/>
-      <c r="I1089" s="12"/>
-      <c r="J1089" s="12"/>
-      <c r="K1089" s="12"/>
-      <c r="L1089" s="12"/>
-      <c r="M1089" s="12"/>
-      <c r="N1089" s="12"/>
-      <c r="O1089" s="12"/>
-      <c r="P1089" s="12"/>
-      <c r="Q1089" s="12"/>
-      <c r="R1089" s="12"/>
-      <c r="S1089" s="12"/>
-      <c r="T1089" s="12"/>
-      <c r="U1089" s="12"/>
-      <c r="V1089" s="12"/>
-      <c r="W1089" s="12"/>
-      <c r="X1089" s="12"/>
-      <c r="Z1089" s="12"/>
-      <c r="AA1089" s="12"/>
-      <c r="AB1089" s="12"/>
-    </row>
-    <row r="1090" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1090" s="31"/>
-      <c r="B1090" s="12"/>
-      <c r="C1090" s="12"/>
-      <c r="D1090" s="12"/>
-      <c r="E1090" s="12"/>
-      <c r="F1090" s="12"/>
-      <c r="G1090" s="12"/>
-      <c r="H1090" s="12"/>
-      <c r="I1090" s="12"/>
-      <c r="J1090" s="12"/>
-      <c r="K1090" s="12"/>
-      <c r="L1090" s="12"/>
-      <c r="M1090" s="12"/>
-      <c r="N1090" s="12"/>
-      <c r="O1090" s="12"/>
-      <c r="P1090" s="12"/>
-      <c r="Q1090" s="12"/>
-      <c r="R1090" s="12"/>
-      <c r="S1090" s="12"/>
-      <c r="T1090" s="12"/>
-      <c r="U1090" s="12"/>
-      <c r="V1090" s="12"/>
-      <c r="W1090" s="12"/>
-      <c r="X1090" s="12"/>
-      <c r="Z1090" s="12"/>
-      <c r="AA1090" s="12"/>
-      <c r="AB1090" s="12"/>
-    </row>
-    <row r="1091" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1091" s="31"/>
-      <c r="B1091" s="12"/>
-      <c r="C1091" s="12"/>
-      <c r="D1091" s="12"/>
-      <c r="E1091" s="12"/>
-      <c r="F1091" s="12"/>
-      <c r="G1091" s="12"/>
-      <c r="H1091" s="12"/>
-      <c r="I1091" s="12"/>
-      <c r="J1091" s="12"/>
-      <c r="K1091" s="12"/>
-      <c r="L1091" s="12"/>
-      <c r="M1091" s="12"/>
-      <c r="N1091" s="12"/>
-      <c r="O1091" s="12"/>
-      <c r="P1091" s="12"/>
-      <c r="Q1091" s="12"/>
-      <c r="R1091" s="12"/>
-      <c r="S1091" s="12"/>
-      <c r="T1091" s="12"/>
-      <c r="U1091" s="12"/>
-      <c r="V1091" s="12"/>
-      <c r="W1091" s="12"/>
-      <c r="X1091" s="12"/>
-      <c r="Z1091" s="12"/>
-      <c r="AA1091" s="12"/>
-      <c r="AB1091" s="12"/>
+    <row r="1075" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1075" s="12"/>
+      <c r="B1075" s="12"/>
+      <c r="C1075" s="12"/>
+      <c r="D1075" s="12"/>
+      <c r="E1075" s="12"/>
+      <c r="F1075" s="18"/>
+      <c r="G1075" s="12"/>
+      <c r="H1075" s="12"/>
+      <c r="I1075" s="12"/>
+      <c r="J1075" s="12"/>
+      <c r="K1075" s="12"/>
+      <c r="L1075" s="12"/>
+      <c r="M1075" s="12"/>
+      <c r="N1075" s="12"/>
+      <c r="O1075" s="12"/>
+      <c r="P1075" s="12"/>
+      <c r="Q1075" s="12"/>
+      <c r="R1075" s="12"/>
+      <c r="S1075" s="12"/>
+      <c r="T1075" s="12"/>
+      <c r="U1075" s="12"/>
+      <c r="V1075" s="12"/>
+      <c r="W1075" s="12"/>
+      <c r="X1075" s="12"/>
+      <c r="Z1075" s="12"/>
+      <c r="AA1075" s="12"/>
+      <c r="AB1075" s="12"/>
+    </row>
+    <row r="1076" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1076" s="12"/>
+      <c r="B1076" s="12"/>
+      <c r="C1076" s="12"/>
+      <c r="D1076" s="12"/>
+      <c r="E1076" s="12"/>
+      <c r="F1076" s="18"/>
+      <c r="G1076" s="12"/>
+      <c r="H1076" s="12"/>
+      <c r="I1076" s="12"/>
+      <c r="J1076" s="12"/>
+      <c r="K1076" s="12"/>
+      <c r="L1076" s="12"/>
+      <c r="M1076" s="12"/>
+      <c r="N1076" s="12"/>
+      <c r="O1076" s="12"/>
+      <c r="P1076" s="12"/>
+      <c r="Q1076" s="12"/>
+      <c r="R1076" s="12"/>
+      <c r="S1076" s="12"/>
+      <c r="T1076" s="12"/>
+      <c r="U1076" s="12"/>
+      <c r="V1076" s="12"/>
+      <c r="W1076" s="12"/>
+      <c r="X1076" s="12"/>
+      <c r="Z1076" s="12"/>
+      <c r="AA1076" s="12"/>
+      <c r="AB1076" s="12"/>
+    </row>
+    <row r="1077" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F1077" s="18"/>
+      <c r="G1077" s="12"/>
+      <c r="H1077" s="12"/>
+      <c r="I1077" s="12"/>
+      <c r="J1077" s="12"/>
+      <c r="K1077" s="12"/>
+      <c r="L1077" s="12"/>
+      <c r="M1077" s="12"/>
+      <c r="N1077" s="12"/>
+      <c r="O1077" s="12"/>
+      <c r="P1077" s="12"/>
+      <c r="Q1077" s="12"/>
+      <c r="R1077" s="12"/>
+      <c r="S1077" s="12"/>
+      <c r="T1077" s="12"/>
+      <c r="U1077" s="12"/>
+      <c r="V1077" s="12"/>
+      <c r="W1077" s="12"/>
+      <c r="X1077" s="12"/>
+      <c r="Z1077" s="12"/>
+      <c r="AA1077" s="12"/>
+      <c r="AB1077" s="12"/>
+    </row>
+    <row r="1078" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F1078" s="18"/>
+      <c r="G1078" s="12"/>
+      <c r="H1078" s="12"/>
+      <c r="I1078" s="12"/>
+      <c r="J1078" s="12"/>
+      <c r="K1078" s="12"/>
+      <c r="L1078" s="12"/>
+      <c r="M1078" s="12"/>
+      <c r="N1078" s="12"/>
+      <c r="O1078" s="12"/>
+      <c r="P1078" s="12"/>
+      <c r="Q1078" s="12"/>
+      <c r="R1078" s="12"/>
+      <c r="S1078" s="12"/>
+      <c r="T1078" s="12"/>
+      <c r="U1078" s="12"/>
+      <c r="V1078" s="12"/>
+      <c r="W1078" s="12"/>
+      <c r="X1078" s="12"/>
+      <c r="Z1078" s="12"/>
+      <c r="AA1078" s="12"/>
+      <c r="AB1078" s="12"/>
+    </row>
+    <row r="1079" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F1079" s="18"/>
+      <c r="G1079" s="12"/>
+      <c r="H1079" s="12"/>
+      <c r="I1079" s="12"/>
+      <c r="J1079" s="12"/>
+      <c r="K1079" s="12"/>
+      <c r="L1079" s="12"/>
+      <c r="M1079" s="12"/>
+      <c r="N1079" s="12"/>
+      <c r="O1079" s="12"/>
+      <c r="P1079" s="12"/>
+      <c r="Q1079" s="12"/>
+      <c r="R1079" s="12"/>
+      <c r="S1079" s="12"/>
+      <c r="T1079" s="12"/>
+      <c r="U1079" s="12"/>
+      <c r="V1079" s="12"/>
+      <c r="W1079" s="12"/>
+      <c r="X1079" s="12"/>
+      <c r="Z1079" s="12"/>
+      <c r="AA1079" s="12"/>
+      <c r="AB1079" s="12"/>
+    </row>
+    <row r="1080" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F1080" s="18"/>
+      <c r="G1080" s="12"/>
+      <c r="H1080" s="12"/>
+      <c r="I1080" s="12"/>
+      <c r="J1080" s="12"/>
+      <c r="K1080" s="12"/>
+      <c r="L1080" s="12"/>
+      <c r="M1080" s="12"/>
+      <c r="N1080" s="12"/>
+      <c r="O1080" s="12"/>
+      <c r="P1080" s="12"/>
+      <c r="Q1080" s="12"/>
+      <c r="R1080" s="12"/>
+      <c r="S1080" s="12"/>
+      <c r="T1080" s="12"/>
+      <c r="U1080" s="12"/>
+      <c r="V1080" s="12"/>
+      <c r="W1080" s="12"/>
+      <c r="X1080" s="12"/>
+      <c r="Z1080" s="12"/>
+      <c r="AA1080" s="12"/>
+      <c r="AB1080" s="12"/>
+    </row>
+    <row r="1081" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="F1081" s="18"/>
+      <c r="G1081" s="12"/>
+      <c r="H1081" s="12"/>
+      <c r="I1081" s="12"/>
+      <c r="J1081" s="12"/>
+      <c r="K1081" s="12"/>
+      <c r="L1081" s="12"/>
+      <c r="M1081" s="12"/>
+      <c r="N1081" s="12"/>
+      <c r="O1081" s="12"/>
+      <c r="P1081" s="12"/>
+      <c r="Q1081" s="12"/>
+      <c r="R1081" s="12"/>
+      <c r="S1081" s="12"/>
+      <c r="T1081" s="12"/>
+      <c r="U1081" s="12"/>
+      <c r="V1081" s="12"/>
+      <c r="W1081" s="12"/>
+      <c r="X1081" s="12"/>
+      <c r="Z1081" s="12"/>
+      <c r="AA1081" s="12"/>
+      <c r="AB1081" s="12"/>
     </row>
     <row r="1092" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1092" s="31"/>
-      <c r="B1092" s="12"/>
-      <c r="C1092" s="12"/>
-      <c r="D1092" s="12"/>
-      <c r="E1092" s="12"/>
-      <c r="F1092" s="12"/>
       <c r="G1092" s="12"/>
       <c r="H1092" s="12"/>
       <c r="I1092" s="12"/>
@@ -33369,8 +33407,211 @@
       <c r="AA1092" s="12"/>
       <c r="AB1092" s="12"/>
     </row>
+    <row r="1093" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1093" s="31"/>
+      <c r="B1093" s="12"/>
+      <c r="C1093" s="12"/>
+      <c r="D1093" s="12"/>
+      <c r="E1093" s="12"/>
+      <c r="F1093" s="12"/>
+      <c r="G1093" s="12"/>
+      <c r="H1093" s="12"/>
+      <c r="I1093" s="12"/>
+      <c r="J1093" s="12"/>
+      <c r="K1093" s="12"/>
+      <c r="L1093" s="12"/>
+      <c r="M1093" s="12"/>
+      <c r="N1093" s="12"/>
+      <c r="O1093" s="12"/>
+      <c r="P1093" s="12"/>
+      <c r="Q1093" s="12"/>
+      <c r="R1093" s="12"/>
+      <c r="S1093" s="12"/>
+      <c r="T1093" s="12"/>
+      <c r="U1093" s="12"/>
+      <c r="V1093" s="12"/>
+      <c r="W1093" s="12"/>
+      <c r="X1093" s="12"/>
+      <c r="Z1093" s="12"/>
+      <c r="AA1093" s="12"/>
+      <c r="AB1093" s="12"/>
+    </row>
+    <row r="1094" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1094" s="31"/>
+      <c r="B1094" s="12"/>
+      <c r="C1094" s="12"/>
+      <c r="D1094" s="12"/>
+      <c r="E1094" s="12"/>
+      <c r="F1094" s="12"/>
+      <c r="G1094" s="12"/>
+      <c r="H1094" s="12"/>
+      <c r="I1094" s="12"/>
+      <c r="J1094" s="12"/>
+      <c r="K1094" s="12"/>
+      <c r="L1094" s="12"/>
+      <c r="M1094" s="12"/>
+      <c r="N1094" s="12"/>
+      <c r="O1094" s="12"/>
+      <c r="P1094" s="12"/>
+      <c r="Q1094" s="12"/>
+      <c r="R1094" s="12"/>
+      <c r="S1094" s="12"/>
+      <c r="T1094" s="12"/>
+      <c r="U1094" s="12"/>
+      <c r="V1094" s="12"/>
+      <c r="W1094" s="12"/>
+      <c r="X1094" s="12"/>
+      <c r="Z1094" s="12"/>
+      <c r="AA1094" s="12"/>
+      <c r="AB1094" s="12"/>
+    </row>
+    <row r="1095" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1095" s="31"/>
+      <c r="B1095" s="12"/>
+      <c r="C1095" s="12"/>
+      <c r="D1095" s="12"/>
+      <c r="E1095" s="12"/>
+      <c r="F1095" s="12"/>
+      <c r="G1095" s="12"/>
+      <c r="H1095" s="12"/>
+      <c r="I1095" s="12"/>
+      <c r="J1095" s="12"/>
+      <c r="K1095" s="12"/>
+      <c r="L1095" s="12"/>
+      <c r="M1095" s="12"/>
+      <c r="N1095" s="12"/>
+      <c r="O1095" s="12"/>
+      <c r="P1095" s="12"/>
+      <c r="Q1095" s="12"/>
+      <c r="R1095" s="12"/>
+      <c r="S1095" s="12"/>
+      <c r="T1095" s="12"/>
+      <c r="U1095" s="12"/>
+      <c r="V1095" s="12"/>
+      <c r="W1095" s="12"/>
+      <c r="X1095" s="12"/>
+      <c r="Z1095" s="12"/>
+      <c r="AA1095" s="12"/>
+      <c r="AB1095" s="12"/>
+    </row>
+    <row r="1096" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1096" s="31"/>
+      <c r="B1096" s="12"/>
+      <c r="C1096" s="12"/>
+      <c r="D1096" s="12"/>
+      <c r="E1096" s="12"/>
+      <c r="F1096" s="12"/>
+      <c r="G1096" s="12"/>
+      <c r="H1096" s="12"/>
+      <c r="I1096" s="12"/>
+      <c r="J1096" s="12"/>
+      <c r="K1096" s="12"/>
+      <c r="L1096" s="12"/>
+      <c r="M1096" s="12"/>
+      <c r="N1096" s="12"/>
+      <c r="O1096" s="12"/>
+      <c r="P1096" s="12"/>
+      <c r="Q1096" s="12"/>
+      <c r="R1096" s="12"/>
+      <c r="S1096" s="12"/>
+      <c r="T1096" s="12"/>
+      <c r="U1096" s="12"/>
+      <c r="V1096" s="12"/>
+      <c r="W1096" s="12"/>
+      <c r="X1096" s="12"/>
+      <c r="Z1096" s="12"/>
+      <c r="AA1096" s="12"/>
+      <c r="AB1096" s="12"/>
+    </row>
+    <row r="1097" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1097" s="31"/>
+      <c r="B1097" s="12"/>
+      <c r="C1097" s="12"/>
+      <c r="D1097" s="12"/>
+      <c r="E1097" s="12"/>
+      <c r="F1097" s="12"/>
+      <c r="G1097" s="12"/>
+      <c r="H1097" s="12"/>
+      <c r="I1097" s="12"/>
+      <c r="J1097" s="12"/>
+      <c r="K1097" s="12"/>
+      <c r="L1097" s="12"/>
+      <c r="M1097" s="12"/>
+      <c r="N1097" s="12"/>
+      <c r="O1097" s="12"/>
+      <c r="P1097" s="12"/>
+      <c r="Q1097" s="12"/>
+      <c r="R1097" s="12"/>
+      <c r="S1097" s="12"/>
+      <c r="T1097" s="12"/>
+      <c r="U1097" s="12"/>
+      <c r="V1097" s="12"/>
+      <c r="W1097" s="12"/>
+      <c r="X1097" s="12"/>
+      <c r="Z1097" s="12"/>
+      <c r="AA1097" s="12"/>
+      <c r="AB1097" s="12"/>
+    </row>
+    <row r="1098" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1098" s="31"/>
+      <c r="B1098" s="12"/>
+      <c r="C1098" s="12"/>
+      <c r="D1098" s="12"/>
+      <c r="E1098" s="12"/>
+      <c r="F1098" s="12"/>
+      <c r="G1098" s="12"/>
+      <c r="H1098" s="12"/>
+      <c r="I1098" s="12"/>
+      <c r="J1098" s="12"/>
+      <c r="K1098" s="12"/>
+      <c r="L1098" s="12"/>
+      <c r="M1098" s="12"/>
+      <c r="N1098" s="12"/>
+      <c r="O1098" s="12"/>
+      <c r="P1098" s="12"/>
+      <c r="Q1098" s="12"/>
+      <c r="R1098" s="12"/>
+      <c r="S1098" s="12"/>
+      <c r="T1098" s="12"/>
+      <c r="U1098" s="12"/>
+      <c r="V1098" s="12"/>
+      <c r="W1098" s="12"/>
+      <c r="X1098" s="12"/>
+      <c r="Z1098" s="12"/>
+      <c r="AA1098" s="12"/>
+      <c r="AB1098" s="12"/>
+    </row>
+    <row r="1099" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1099" s="31"/>
+      <c r="B1099" s="12"/>
+      <c r="C1099" s="12"/>
+      <c r="D1099" s="12"/>
+      <c r="E1099" s="12"/>
+      <c r="F1099" s="12"/>
+      <c r="G1099" s="12"/>
+      <c r="H1099" s="12"/>
+      <c r="I1099" s="12"/>
+      <c r="J1099" s="12"/>
+      <c r="K1099" s="12"/>
+      <c r="L1099" s="12"/>
+      <c r="M1099" s="12"/>
+      <c r="N1099" s="12"/>
+      <c r="O1099" s="12"/>
+      <c r="P1099" s="12"/>
+      <c r="Q1099" s="12"/>
+      <c r="R1099" s="12"/>
+      <c r="S1099" s="12"/>
+      <c r="T1099" s="12"/>
+      <c r="U1099" s="12"/>
+      <c r="V1099" s="12"/>
+      <c r="W1099" s="12"/>
+      <c r="X1099" s="12"/>
+      <c r="Z1099" s="12"/>
+      <c r="AA1099" s="12"/>
+      <c r="AB1099" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:W1074">
+  <autoFilter ref="A3:W1081">
     <filterColumn colId="9" showButton="0"/>
     <filterColumn colId="11" showButton="0"/>
     <filterColumn colId="12" showButton="0"/>
@@ -33417,1243 +33658,1243 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="39"/>
       <c r="C2" s="39"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="39"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="39"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="40" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="60"/>
       <c r="C7" s="42"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" s="43"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C13" s="43"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="43"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="43"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C17" s="43"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C18" s="43"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C19" s="43"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" s="43"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C21" s="43"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" s="43"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" s="43"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" s="43"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" s="43"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" s="43"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="43"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" s="43"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" s="43"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="43"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C36" s="43"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C37" s="43"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C38" s="43"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C39" s="43"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C40" s="43"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C41" s="43"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C42" s="43"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C43" s="43"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C44" s="43"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C45" s="43"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C46" s="43"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C48" s="43"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C50" s="43"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C51" s="43"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="43" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C52" s="43"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C53" s="43"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C54" s="43"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C55" s="43"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C56" s="43"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C57" s="43"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C58" s="43"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C59" s="43"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C60" s="43"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C62" s="43"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C63" s="43"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C64" s="43"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C65" s="43"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="43" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C66" s="43"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C67" s="43"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C68" s="43"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C69" s="43"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C70" s="43"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C71" s="43"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C72" s="43"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C73" s="43"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C74" s="43"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C75" s="43"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C76" s="43"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C77" s="43"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C78" s="43"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C79" s="43"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C80" s="43"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C81" s="43"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C82" s="43"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C83" s="43"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="43" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C84" s="43"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C85" s="43"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C86" s="43"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C87" s="43"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="43" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C88" s="43"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="43" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C89" s="43"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="43" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C90" s="43"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C91" s="43"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="43" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C92" s="43"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="43" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C93" s="43"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="43" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C94" s="43"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C95" s="43"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="43" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C96" s="43"/>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="43" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C97" s="43"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C98" s="43"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="43" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C99" s="43"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C100" s="43"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C101" s="43"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="43" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C102" s="43"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C103" s="43"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C104" s="43"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="43" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C105" s="43"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="43" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C106" s="43"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="43" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C107" s="43"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C108" s="43"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C109" s="43"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="43" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C110" s="43"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C111" s="43"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="43" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B112" s="43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C112" s="43"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="43" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C113" s="43"/>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="43" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B114" s="43" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C114" s="43"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="43" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C115" s="43"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="43" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B116" s="43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C116" s="43"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="43" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C117" s="43"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="43" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B118" s="43" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C118" s="43"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="43" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B119" s="43" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C119" s="43"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C120" s="43"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C121" s="43"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C122" s="43"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="43" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C123" s="43"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="43" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C124" s="43"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="43" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C125" s="43"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="43" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C126" s="43"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="43" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C127" s="43"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C128" s="43"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C129" s="43"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="43" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C130" s="43"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="43" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C131" s="43"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="43" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C132" s="43"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="43" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="43" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C134" s="43"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="60" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B139" s="60"/>
       <c r="C139" s="42"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B141" s="43"/>
       <c r="C141" s="43"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B142" s="43"/>
       <c r="C142" s="43"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B143" s="43"/>
       <c r="C143" s="43"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -1749,48 +1749,6 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1883,6 +1841,48 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2197,10 +2197,10 @@
   <dimension ref="A1:AB1105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="J8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="V26" sqref="V26"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2247,31 +2247,31 @@
         <v>8</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="46"/>
-      <c r="J1" s="45" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="50"/>
-      <c r="L1" s="47" t="s">
+      <c r="K1" s="81"/>
+      <c r="L1" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="45" t="s">
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="46"/>
-      <c r="S1" s="47" t="s">
+      <c r="R1" s="77"/>
+      <c r="S1" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="49"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Z1" s="1"/>
@@ -2383,27 +2383,27 @@
       <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="51" t="s">
+      <c r="K3" s="84"/>
+      <c r="L3" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="54" t="s">
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="55"/>
-      <c r="S3" s="54" t="s">
+      <c r="R3" s="86"/>
+      <c r="S3" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="55"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="86"/>
       <c r="W3" s="8" t="s">
         <v>339</v>
       </c>
@@ -2433,10 +2433,10 @@
       <c r="I4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="44"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
@@ -2452,10 +2452,10 @@
       <c r="P4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="Q4" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="44"/>
+      <c r="R4" s="75"/>
       <c r="S4" s="5" t="s">
         <v>52</v>
       </c>
@@ -2594,49 +2594,49 @@
       <c r="F7" s="32">
         <v>26</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="K7" s="70" t="s">
+      <c r="K7" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="L7" s="63" t="s">
+      <c r="L7" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="N7" s="62" t="s">
+      <c r="N7" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="P7" s="63" t="s">
+      <c r="P7" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="Q7" s="60" t="s">
+      <c r="Q7" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="R7" s="60" t="s">
+      <c r="R7" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="S7" s="61" t="s">
+      <c r="S7" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="T7" s="62" t="s">
+      <c r="T7" s="48" t="s">
         <v>333</v>
       </c>
-      <c r="U7" s="63" t="s">
+      <c r="U7" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="V7" s="63" t="s">
+      <c r="V7" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="W7" s="60" t="s">
+      <c r="W7" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="X7" s="60" t="s">
+      <c r="X7" s="46" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2646,23 +2646,23 @@
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="63"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="73" t="s">
+      <c r="J8" s="58"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="48"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="X8" s="73" t="s">
+      <c r="X8" s="59" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2672,23 +2672,23 @@
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="63"/>
-      <c r="W9" s="60" t="s">
+      <c r="J9" s="58"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="X9" s="60" t="s">
+      <c r="X9" s="46" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2698,23 +2698,23 @@
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="63"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="63"/>
-      <c r="V10" s="63"/>
-      <c r="W10" s="73" t="s">
+      <c r="J10" s="58"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="X10" s="73" t="s">
+      <c r="X10" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2724,23 +2724,23 @@
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
       <c r="E11" s="31"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="60"/>
-      <c r="R11" s="60"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="63"/>
-      <c r="V11" s="63"/>
-      <c r="W11" s="73" t="s">
+      <c r="J11" s="58"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="X11" s="73" t="s">
+      <c r="X11" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2750,35 +2750,35 @@
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="60" t="s">
+      <c r="J12" s="58"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="R12" s="60" t="s">
+      <c r="R12" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="S12" s="61" t="s">
+      <c r="S12" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="T12" s="62" t="s">
+      <c r="T12" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="V12" s="63" t="s">
+      <c r="V12" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="W12" s="60" t="s">
+      <c r="W12" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="X12" s="60" t="s">
+      <c r="X12" s="46" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2788,23 +2788,23 @@
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="62"/>
-      <c r="U13" s="63"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="73" t="s">
+      <c r="J13" s="58"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="X13" s="73" t="s">
+      <c r="X13" s="59" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2814,23 +2814,23 @@
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="60" t="s">
+      <c r="J14" s="58"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="X14" s="60" t="s">
+      <c r="X14" s="46" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2840,23 +2840,23 @@
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="73" t="s">
+      <c r="J15" s="58"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="47"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="X15" s="73" t="s">
+      <c r="X15" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2866,23 +2866,23 @@
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="63"/>
-      <c r="V16" s="63"/>
-      <c r="W16" s="73" t="s">
+      <c r="J16" s="58"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="X16" s="73" t="s">
+      <c r="X16" s="59" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2892,31 +2892,31 @@
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="84" t="s">
+      <c r="J17" s="58"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="T17" s="85" t="s">
+      <c r="T17" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="U17" s="86" t="s">
+      <c r="U17" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="V17" s="86" t="s">
+      <c r="V17" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="W17" s="60" t="s">
+      <c r="W17" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="X17" s="60" t="s">
+      <c r="X17" s="46" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2928,41 +2928,41 @@
       <c r="E18" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="72"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="65" t="s">
+      <c r="J18" s="58"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="65" t="s">
+      <c r="O18" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="65" t="s">
+      <c r="P18" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="66" t="s">
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="T18" s="67" t="s">
+      <c r="T18" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="V18" s="65" t="s">
+      <c r="V18" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="W18" s="68" t="s">
+      <c r="W18" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="X18" s="68" t="s">
+      <c r="X18" s="54" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2974,15 +2974,15 @@
       <c r="E19" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="71"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M19" s="58" t="s">
+      <c r="M19" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N19" s="59" t="s">
+      <c r="N19" s="45" t="s">
         <v>20</v>
       </c>
       <c r="O19" s="28" t="s">
@@ -2993,10 +2993,10 @@
       </c>
       <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="58" t="s">
+      <c r="S19" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="T19" s="59" t="s">
+      <c r="T19" s="45" t="s">
         <v>20</v>
       </c>
       <c r="U19" s="28" t="s">
@@ -3018,17 +3018,17 @@
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="71"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="57"/>
       <c r="L20" s="28"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="59"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
       <c r="O20" s="28"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="58"/>
-      <c r="T20" s="59"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="45"/>
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
       <c r="W20" s="27" t="s">
@@ -3044,17 +3044,17 @@
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="31"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="71"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="57"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="45"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
       <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="58"/>
-      <c r="T21" s="59"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="45"/>
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
       <c r="W21" s="27" t="s">
@@ -3070,23 +3070,23 @@
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="71"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="57"/>
       <c r="L22" s="28"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="59"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="45"/>
       <c r="O22" s="28"/>
       <c r="P22" s="28"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
-      <c r="S22" s="58"/>
-      <c r="T22" s="59"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="45"/>
       <c r="U22" s="28"/>
       <c r="V22" s="28"/>
-      <c r="W22" s="74" t="s">
+      <c r="W22" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="X22" s="74" t="s">
+      <c r="X22" s="60" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3096,17 +3096,17 @@
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="E23" s="31"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="71"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="57"/>
       <c r="L23" s="28"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="45"/>
       <c r="O23" s="28"/>
       <c r="P23" s="28"/>
       <c r="Q23" s="27"/>
       <c r="R23" s="27"/>
-      <c r="S23" s="58"/>
-      <c r="T23" s="59"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="45"/>
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
       <c r="W23" s="27" t="s">
@@ -3144,43 +3144,43 @@
       <c r="K24" s="42" t="s">
         <v>338</v>
       </c>
-      <c r="L24" s="79" t="s">
+      <c r="L24" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="M24" s="80" t="s">
+      <c r="M24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="81" t="s">
+      <c r="N24" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="79" t="s">
+      <c r="O24" s="65" t="s">
         <v>357</v>
       </c>
-      <c r="P24" s="79" t="s">
+      <c r="P24" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="Q24" s="82" t="s">
+      <c r="Q24" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="R24" s="82" t="s">
+      <c r="R24" s="68" t="s">
         <v>355</v>
       </c>
-      <c r="S24" s="80" t="s">
+      <c r="S24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T24" s="81" t="s">
+      <c r="T24" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="U24" s="79" t="s">
+      <c r="U24" s="65" t="s">
         <v>334</v>
       </c>
-      <c r="V24" s="79" t="s">
+      <c r="V24" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="W24" s="82" t="s">
+      <c r="W24" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="X24" s="82" t="s">
+      <c r="X24" s="68" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3190,21 +3190,21 @@
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="31"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="79"/>
-      <c r="W25" s="83" t="s">
+      <c r="L25" s="65"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="69" t="s">
         <v>342</v>
       </c>
-      <c r="X25" s="83" t="s">
+      <c r="X25" s="69" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3214,21 +3214,21 @@
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="31"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="81"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="80"/>
-      <c r="T26" s="81"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="82" t="s">
+      <c r="L26" s="65"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="X26" s="82" t="s">
+      <c r="X26" s="68" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3238,21 +3238,21 @@
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="79"/>
-      <c r="V27" s="79"/>
-      <c r="W27" s="83" t="s">
+      <c r="L27" s="65"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="67"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="67"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="69" t="s">
         <v>344</v>
       </c>
-      <c r="X27" s="83" t="s">
+      <c r="X27" s="69" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3262,21 +3262,21 @@
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="81"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="83" t="s">
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="67"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="69" t="s">
         <v>344</v>
       </c>
-      <c r="X28" s="83" t="s">
+      <c r="X28" s="69" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3291,10 +3291,10 @@
       <c r="L29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="M29" s="58" t="s">
+      <c r="M29" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="N29" s="59" t="s">
+      <c r="N29" s="45" t="s">
         <v>22</v>
       </c>
       <c r="O29" s="28" t="s">
@@ -3305,16 +3305,16 @@
       </c>
       <c r="Q29" s="27"/>
       <c r="R29" s="27"/>
-      <c r="S29" s="87" t="s">
+      <c r="S29" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="T29" s="88" t="s">
+      <c r="T29" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="64" t="s">
+      <c r="U29" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="V29" s="64" t="s">
+      <c r="V29" s="50" t="s">
         <v>24</v>
       </c>
       <c r="W29" s="27" t="s">
@@ -3332,39 +3332,39 @@
       <c r="E30" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="L30" s="75" t="s">
+      <c r="L30" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="M30" s="76" t="s">
+      <c r="M30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="N30" s="77" t="s">
+      <c r="N30" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="75" t="s">
+      <c r="O30" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="75" t="s">
+      <c r="P30" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="78"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="76" t="s">
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="T30" s="77" t="s">
+      <c r="T30" s="63" t="s">
         <v>356</v>
       </c>
-      <c r="U30" s="75" t="s">
+      <c r="U30" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="V30" s="75" t="s">
+      <c r="V30" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="W30" s="78" t="s">
+      <c r="W30" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="X30" s="78" t="s">
+      <c r="X30" s="64" t="s">
         <v>348</v>
       </c>
     </row>
@@ -34094,10 +34094,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -35256,10 +35256,10 @@
       <c r="C138" s="40"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="57" t="s">
+      <c r="A139" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="B139" s="57"/>
+      <c r="B139" s="88"/>
       <c r="C139" s="39"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="363">
   <si>
     <t>권한</t>
   </si>
@@ -1319,15 +1319,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>remove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CodeTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>remove</t>
+    <t>CodeTest2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FieldSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>FieldDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    분양계정관리22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,7 +1490,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1549,6 +1569,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1616,7 +1642,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1883,6 +1909,24 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2197,10 +2241,10 @@
   <dimension ref="A1:AB1105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2749,7 +2793,9 @@
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>361</v>
+      </c>
       <c r="J12" s="58"/>
       <c r="K12" s="57"/>
       <c r="L12" s="49"/>
@@ -2761,7 +2807,7 @@
         <v>336</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="S12" s="47" t="s">
         <v>14</v>
@@ -2770,7 +2816,7 @@
         <v>23</v>
       </c>
       <c r="U12" s="49" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="V12" s="49" t="s">
         <v>335</v>
@@ -3121,7 +3167,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>19</v>
+        <v>362</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>9</v>
@@ -3154,7 +3200,7 @@
         <v>23</v>
       </c>
       <c r="O24" s="65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P24" s="65" t="s">
         <v>335</v>
@@ -3163,7 +3209,7 @@
         <v>336</v>
       </c>
       <c r="R24" s="68" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="S24" s="66" t="s">
         <v>14</v>
@@ -3172,7 +3218,7 @@
         <v>23</v>
       </c>
       <c r="U24" s="65" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="V24" s="65" t="s">
         <v>335</v>
@@ -3353,7 +3399,7 @@
         <v>14</v>
       </c>
       <c r="T30" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U30" s="61" t="s">
         <v>21</v>
@@ -3369,58 +3415,62 @@
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31" t="s">
+      <c r="C31" s="90"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="29" t="s">
+      <c r="F31" s="92"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="K31" s="29" t="s">
+      <c r="K31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="L31" s="29" t="s">
+      <c r="L31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="M31" s="29" t="s">
+      <c r="M31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="N31" s="29" t="s">
+      <c r="N31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="O31" s="29" t="s">
+      <c r="O31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="P31" s="29" t="s">
+      <c r="P31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="Q31" s="29" t="s">
+      <c r="Q31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="R31" s="29" t="s">
+      <c r="R31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="S31" s="29" t="s">
+      <c r="S31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="T31" s="29" t="s">
+      <c r="T31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="U31" s="29" t="s">
+      <c r="U31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="V31" s="29" t="s">
+      <c r="V31" s="89" t="s">
         <v>354</v>
       </c>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -2241,10 +2241,10 @@
   <dimension ref="A1:AB1105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="365">
   <si>
     <t>권한</t>
   </si>
@@ -1247,10 +1247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CodeAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1349,6 +1345,16 @@
   <si>
     <t xml:space="preserve">    분양계정관리22</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BHDe</t>
+  </si>
+  <si>
+    <t>BHDe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeAccount</t>
   </si>
 </sst>
 </file>
@@ -1868,6 +1874,24 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1909,24 +1933,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2241,10 +2247,10 @@
   <dimension ref="A1:AB1105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q21" sqref="Q21"/>
+      <selection pane="bottomRight" activeCell="Q12" sqref="Q12:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2291,31 +2297,31 @@
         <v>8</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="76" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="81"/>
-      <c r="L1" s="78" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="76" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78" t="s">
+      <c r="R1" s="83"/>
+      <c r="S1" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="80"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Z1" s="1"/>
@@ -2427,32 +2433,32 @@
       <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="82" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="85" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="86"/>
-      <c r="S3" s="85" t="s">
+      <c r="R3" s="92"/>
+      <c r="S3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="86"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="92"/>
       <c r="W3" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>339</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2477,10 +2483,10 @@
       <c r="I4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="75" t="s">
+      <c r="J4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="75"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
@@ -2496,15 +2502,15 @@
       <c r="P4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="75"/>
+      <c r="R4" s="81"/>
       <c r="S4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U4" s="5" t="s">
         <v>53</v>
@@ -2513,19 +2519,19 @@
         <v>54</v>
       </c>
       <c r="W4" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="X4" s="5" t="s">
-        <v>346</v>
-      </c>
       <c r="Z4" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="AA4" s="43" t="s">
         <v>351</v>
       </c>
-      <c r="AA4" s="43" t="s">
+      <c r="AB4" s="43" t="s">
         <v>352</v>
-      </c>
-      <c r="AB4" s="43" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -2660,10 +2666,10 @@
         <v>335</v>
       </c>
       <c r="Q7" s="46" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="R7" s="46" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="S7" s="47" t="s">
         <v>332</v>
@@ -2678,7 +2684,7 @@
         <v>335</v>
       </c>
       <c r="W7" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X7" s="46" t="s">
         <v>31</v>
@@ -2704,7 +2710,7 @@
       <c r="U8" s="49"/>
       <c r="V8" s="49"/>
       <c r="W8" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X8" s="59" t="s">
         <v>34</v>
@@ -2730,7 +2736,7 @@
       <c r="U9" s="49"/>
       <c r="V9" s="49"/>
       <c r="W9" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X9" s="46" t="s">
         <v>33</v>
@@ -2756,7 +2762,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="49"/>
       <c r="W10" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X10" s="59" t="s">
         <v>35</v>
@@ -2782,7 +2788,7 @@
       <c r="U11" s="49"/>
       <c r="V11" s="49"/>
       <c r="W11" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X11" s="59" t="s">
         <v>35</v>
@@ -2794,7 +2800,7 @@
       <c r="C12" s="30"/>
       <c r="D12" s="30"/>
       <c r="E12" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J12" s="58"/>
       <c r="K12" s="57"/>
@@ -2804,10 +2810,10 @@
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
       <c r="Q12" s="46" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="R12" s="46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="S12" s="47" t="s">
         <v>14</v>
@@ -2816,13 +2822,13 @@
         <v>23</v>
       </c>
       <c r="U12" s="49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V12" s="49" t="s">
         <v>335</v>
       </c>
       <c r="W12" s="46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X12" s="46" t="s">
         <v>31</v>
@@ -2848,7 +2854,7 @@
       <c r="U13" s="49"/>
       <c r="V13" s="49"/>
       <c r="W13" s="59" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X13" s="59" t="s">
         <v>34</v>
@@ -2874,7 +2880,7 @@
       <c r="U14" s="49"/>
       <c r="V14" s="49"/>
       <c r="W14" s="46" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X14" s="46" t="s">
         <v>33</v>
@@ -2900,7 +2906,7 @@
       <c r="U15" s="49"/>
       <c r="V15" s="49"/>
       <c r="W15" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X15" s="59" t="s">
         <v>35</v>
@@ -2926,7 +2932,7 @@
       <c r="U16" s="49"/>
       <c r="V16" s="49"/>
       <c r="W16" s="59" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X16" s="59" t="s">
         <v>35</v>
@@ -2960,7 +2966,7 @@
         <v>24</v>
       </c>
       <c r="W17" s="46" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X17" s="46" t="s">
         <v>32</v>
@@ -2991,8 +2997,12 @@
       <c r="P18" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
+      <c r="Q18" s="54" t="s">
+        <v>362</v>
+      </c>
+      <c r="R18" s="54" t="s">
+        <v>364</v>
+      </c>
       <c r="S18" s="52" t="s">
         <v>14</v>
       </c>
@@ -3006,7 +3016,7 @@
         <v>24</v>
       </c>
       <c r="W18" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X18" s="54" t="s">
         <v>32</v>
@@ -3052,10 +3062,10 @@
         <v>24</v>
       </c>
       <c r="W19" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X19" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
@@ -3078,10 +3088,10 @@
       <c r="U20" s="28"/>
       <c r="V20" s="28"/>
       <c r="W20" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X20" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
@@ -3104,7 +3114,7 @@
       <c r="U21" s="28"/>
       <c r="V21" s="28"/>
       <c r="W21" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X21" s="27" t="s">
         <v>32</v>
@@ -3130,7 +3140,7 @@
       <c r="U22" s="28"/>
       <c r="V22" s="28"/>
       <c r="W22" s="60" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X22" s="60" t="s">
         <v>35</v>
@@ -3156,10 +3166,10 @@
       <c r="U23" s="28"/>
       <c r="V23" s="28"/>
       <c r="W23" s="27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X23" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
@@ -3167,7 +3177,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>9</v>
@@ -3188,7 +3198,7 @@
         <v>328</v>
       </c>
       <c r="K24" s="42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L24" s="65" t="s">
         <v>331</v>
@@ -3200,7 +3210,7 @@
         <v>23</v>
       </c>
       <c r="O24" s="65" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P24" s="65" t="s">
         <v>335</v>
@@ -3209,7 +3219,7 @@
         <v>336</v>
       </c>
       <c r="R24" s="68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="S24" s="66" t="s">
         <v>14</v>
@@ -3218,13 +3228,13 @@
         <v>23</v>
       </c>
       <c r="U24" s="65" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="V24" s="65" t="s">
         <v>335</v>
       </c>
       <c r="W24" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="X24" s="68" t="s">
         <v>31</v>
@@ -3248,7 +3258,7 @@
       <c r="U25" s="65"/>
       <c r="V25" s="65"/>
       <c r="W25" s="69" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X25" s="69" t="s">
         <v>34</v>
@@ -3272,7 +3282,7 @@
       <c r="U26" s="65"/>
       <c r="V26" s="65"/>
       <c r="W26" s="68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X26" s="68" t="s">
         <v>33</v>
@@ -3296,7 +3306,7 @@
       <c r="U27" s="65"/>
       <c r="V27" s="65"/>
       <c r="W27" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X27" s="69" t="s">
         <v>35</v>
@@ -3320,7 +3330,7 @@
       <c r="U28" s="65"/>
       <c r="V28" s="65"/>
       <c r="W28" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="X28" s="69" t="s">
         <v>35</v>
@@ -3364,7 +3374,7 @@
         <v>24</v>
       </c>
       <c r="W29" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="X29" s="27" t="s">
         <v>32</v>
@@ -3399,7 +3409,7 @@
         <v>14</v>
       </c>
       <c r="T30" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U30" s="61" t="s">
         <v>21</v>
@@ -3408,69 +3418,69 @@
         <v>24</v>
       </c>
       <c r="W30" s="64" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="X30" s="64" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="B31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="91" t="s">
+      <c r="A31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="92"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="K31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="L31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="M31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="N31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="O31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="P31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="R31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="S31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="T31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="U31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="V31" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="K31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="L31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="M31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="N31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="O31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="P31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="R31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="S31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="T31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="U31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="V31" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="W31" s="75"/>
+      <c r="X31" s="75"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -34144,10 +34154,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -35306,10 +35316,10 @@
       <c r="C138" s="40"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="88" t="s">
+      <c r="A139" s="94" t="s">
         <v>323</v>
       </c>
-      <c r="B139" s="88"/>
+      <c r="B139" s="94"/>
       <c r="C139" s="39"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="3) SC,BC 메소드설계" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="테이블목록" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3) SC,BC 메소드설계'!$A$3:$W$1087</definedName>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="367">
   <si>
     <t>권한</t>
   </si>
@@ -1355,6 +1355,14 @@
   </si>
   <si>
     <t>CodeAccount</t>
+  </si>
+  <si>
+    <t>BHDe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2250,7 +2258,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q12" sqref="Q12:R12"/>
+      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2998,10 +3006,10 @@
         <v>24</v>
       </c>
       <c r="Q18" s="54" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="R18" s="54" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="S18" s="52" t="s">
         <v>14</v>
@@ -3047,8 +3055,12 @@
       <c r="P19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
+      <c r="Q19" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>364</v>
+      </c>
       <c r="S19" s="44" t="s">
         <v>14</v>
       </c>
@@ -34097,7 +34109,7 @@
   <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -2258,7 +2258,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R22" sqref="R22"/>
+      <selection pane="bottomRight" activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>

--- a/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
+++ b/CodeManager/document/한국자산신탁_분양임대_프로그램설계_ver.1.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="21615" windowHeight="11805" tabRatio="541"/>
+    <workbookView xWindow="0" yWindow="180" windowWidth="21615" windowHeight="11805" tabRatio="541" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="3) SC,BC 메소드설계" sheetId="2" r:id="rId1"/>
@@ -1892,6 +1892,9 @@
     <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1933,9 +1936,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2249,11 +2249,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="J11" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2297,31 +2297,31 @@
         <v>8</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="81" t="s">
+      <c r="I1" s="83"/>
+      <c r="J1" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="86"/>
-      <c r="L1" s="83" t="s">
+      <c r="K1" s="87"/>
+      <c r="L1" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="81" t="s">
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83" t="s">
+      <c r="R1" s="83"/>
+      <c r="S1" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
@@ -2427,27 +2427,27 @@
       <c r="I3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="87" t="s">
+      <c r="J3" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="89"/>
-      <c r="L3" s="87" t="s">
+      <c r="K3" s="90"/>
+      <c r="L3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="90" t="s">
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="91"/>
-      <c r="S3" s="90" t="s">
+      <c r="R3" s="92"/>
+      <c r="S3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="91"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="92"/>
       <c r="W3" s="8" t="s">
         <v>337</v>
       </c>
@@ -2477,10 +2477,10 @@
       <c r="I4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="80"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="5" t="s">
         <v>40</v>
       </c>
@@ -2496,10 +2496,10 @@
       <c r="P4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="Q4" s="80" t="s">
+      <c r="Q4" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="80"/>
+      <c r="R4" s="81"/>
       <c r="S4" s="5" t="s">
         <v>51</v>
       </c>
@@ -2668,7 +2668,7 @@
       <c r="W7" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="X7" s="94" t="s">
+      <c r="X7" s="80" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="W12" s="45" t="s">
         <v>362</v>
       </c>
-      <c r="X12" s="94" t="s">
+      <c r="X12" s="80" t="s">
         <v>363</v>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       <c r="W24" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="X24" s="94" t="s">
+      <c r="X24" s="80" t="s">
         <v>363</v>
       </c>
     </row>
@@ -30896,8 +30896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -30954,10 +30954,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="93"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="39"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -32116,10 +32116,10 @@
       <c r="C138" s="40"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="93" t="s">
+      <c r="A139" s="94" t="s">
         <v>322</v>
       </c>
-      <c r="B139" s="93"/>
+      <c r="B139" s="94"/>
       <c r="C139" s="39"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
